--- a/tax/SanJose_expense.xlsx
+++ b/tax/SanJose_expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_Family\02_Tax\2026_taxform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68EAAD9-24CD-49DD-8D30-0ADC83D38DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F66B90-875D-4734-BE93-78BC06C18895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="0" windowWidth="25590" windowHeight="15585" xr2:uid="{4306444B-0262-4BB7-ACAA-38E9B4FA6F9A}"/>
+    <workbookView xWindow="0" yWindow="930" windowWidth="28800" windowHeight="14220" xr2:uid="{4306444B-0262-4BB7-ACAA-38E9B4FA6F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="16" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="27">
   <si>
     <t>Water</t>
   </si>
@@ -82,6 +82,42 @@
   </si>
   <si>
     <t>Overall (Jan to Dec)</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -132,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,6 +179,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +500,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,19 +521,28 @@
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="4">
+        <f>SUM(Jan!B2, Feb!B2, Mar!B2, Apr!B2, May!B2, June!B2, July!B2, Aug!B2, Sep!B2, Oct!B2, Nov!B2, Dec!B2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="5">
+        <f>SUM(Jan!B3, Feb!B3, Mar!B3, Apr!B3, May!B3, June!B3, July!B3, Aug!B3, Sep!B3, Oct!B3, Nov!B3, Dec!B3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="4">
+        <f>SUM(Jan!B4, Feb!B4, Mar!B4, Apr!B4, May!B4, June!B4, July!B4, Aug!B4, Sep!B4, Oct!B4, Nov!B4, Dec!B4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -596,7 +644,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +656,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -722,6 +772,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -730,7 +781,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +793,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -855,6 +908,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -863,7 +917,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +929,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -987,6 +1043,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -995,7 +1052,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1064,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1121,6 +1180,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1129,7 +1189,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1202,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1254,6 +1316,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1262,7 +1325,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1337,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1388,6 +1453,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1396,7 +1462,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1474,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1520,6 +1588,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1528,7 +1597,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1609,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1654,6 +1725,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1662,7 +1734,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1746,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1786,6 +1860,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1794,7 +1869,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1881,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1920,6 +1997,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1928,7 +2006,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,7 +2018,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2054,6 +2134,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2062,7 +2143,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2155,9 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2189,5 +2272,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tax/SanJose_expense.xlsx
+++ b/tax/SanJose_expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_Family\02_Tax\2026_taxform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F66B90-875D-4734-BE93-78BC06C18895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50E1CBC-A25C-4356-A439-3D0F7FF218B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="930" windowWidth="28800" windowHeight="14220" xr2:uid="{4306444B-0262-4BB7-ACAA-38E9B4FA6F9A}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="28800" windowHeight="14220" xr2:uid="{4306444B-0262-4BB7-ACAA-38E9B4FA6F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="16" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="32">
   <si>
     <t>Water</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Water Heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fence (Front, Right, Left)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Electrical Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Plumbing</t>
   </si>
 </sst>
 </file>
@@ -168,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7F9F73-8C34-4C98-A9F0-8B57D35360A3}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -599,37 +615,112 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="6">
         <f>SUM(Jan!B11, Feb!B11, Mar!B11, Apr!B11, May!B11, June!B11, July!B11, Aug!B11, Sep!B11, Oct!B11, Nov!B11, Dec!B11)</f>
         <v>25452.81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SUM(Jan!B11, Feb!B11, Mar!B11, Apr!B11, May!B11)</f>
+        <v>4674.2299999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <f>SUM(June!B11, July!B11, Aug!B11, Sep!B11)</f>
+        <v>13916.859999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <f>SUM(Oct!B11, Nov!B11)</f>
+        <v>4714.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <f>SUM(Dec!B11)</f>
+        <v>2147.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B18" s="6">
         <f>SUM(Jan!B12, Feb!B12, Mar!B12, Apr!B12, May!B12, June!B12, July!B12, Aug!B12, Sep!B12, Oct!B12, Nov!B12, Dec!B12)</f>
         <v>26274.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6">
+        <f>SUM(Jan!B12, Feb!B12, Mar!B12, Apr!B12, May!B12)</f>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6">
+        <f>SUM(June!B12, July!B12, Aug!B12, Sep!B12)</f>
+        <v>21454.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="6">
+        <f>SUM(Dec!B12)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B23" s="2">
         <f>SUM(Jan!B13, Feb!B13, Mar!B13, Apr!B13, May!B13, June!B13, July!B13, Aug!B13, Sep!B13, Oct!B13, Nov!B13, Dec!B13)</f>
         <v>2008.63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B24" s="2">
         <f>SUM(Jan!B14, Feb!B14, Mar!B14, Apr!B14, May!B14, June!B14, July!B14, Aug!B14, Sep!B14, Oct!B14, Nov!B14, Dec!B14)</f>
         <v>2332.0300000000002</v>
       </c>
